--- a/MATLAB & Simulink Files/ElevationProfile.xlsx
+++ b/MATLAB & Simulink Files/ElevationProfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Università\CSAGV\Challenge 2022\MATLAB &amp; Simulink Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Università\MAGISTRALE\CSAGV\Challenge 2022\MATLAB &amp; Simulink Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE85A3C-6FFB-46A1-BA80-5B92B9A5C3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7766F5-ABF3-48A4-8D26-F20FF594E580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9FCFB848-5488-4DA8-AF39-9249C63D4004}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16904D60-A24A-4EF1-A204-D0B5A418F6E8}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,6 +676,230 @@
       </c>
       <c r="C26" s="2"/>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>2250</v>
+      </c>
+      <c r="B27" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>2340</v>
+      </c>
+      <c r="B28" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>2430</v>
+      </c>
+      <c r="B29" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>2520</v>
+      </c>
+      <c r="B30" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>2610</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="B32" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>2790</v>
+      </c>
+      <c r="B33" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>2880</v>
+      </c>
+      <c r="B34" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>2970</v>
+      </c>
+      <c r="B35" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>3060</v>
+      </c>
+      <c r="B36" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>3150</v>
+      </c>
+      <c r="B37" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>3240</v>
+      </c>
+      <c r="B38" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>3330</v>
+      </c>
+      <c r="B39" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>3420</v>
+      </c>
+      <c r="B40" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>3510</v>
+      </c>
+      <c r="B41" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>3600</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>3690</v>
+      </c>
+      <c r="B43" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>3780</v>
+      </c>
+      <c r="B44" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>3870</v>
+      </c>
+      <c r="B45" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>3960</v>
+      </c>
+      <c r="B46" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>4050</v>
+      </c>
+      <c r="B47" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>4140</v>
+      </c>
+      <c r="B48" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>4230</v>
+      </c>
+      <c r="B49" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>4320</v>
+      </c>
+      <c r="B50" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>4410</v>
+      </c>
+      <c r="B51" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="B52" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>4590</v>
+      </c>
+      <c r="B53" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>4680</v>
+      </c>
+      <c r="B54" s="2">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
